--- a/data/trans_orig/P36B06-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B06-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{585B7E6A-1E9A-4C5C-B761-8053B812D656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{39C0BC5B-C714-4D9B-B8B2-855F4C9261DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{78CB6C61-58D1-4414-A925-D4099524EC76}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{536EA731-594E-45DD-A4C6-A059894BF3E3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="713">
   <si>
     <t>Población según la frecuencia de consumición de fruta fresca en 2007 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -856,13 +856,16 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población según la frecuencia de consumición de fruta fresca en 2012 (Tasa respuesta: 99,83%)</t>
+    <t>Población según la frecuencia de consumo de fruta fresca en 2012 (Tasa respuesta: 99,83%)</t>
   </si>
   <si>
     <t>3,47%</t>
   </si>
   <si>
-    <t>8,9%</t>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
   </si>
   <si>
     <t>0%</t>
@@ -871,1240 +874,1243 @@
     <t>1,77%</t>
   </si>
   <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
     <t>0,37%</t>
   </si>
   <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>65,35%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
   </si>
   <si>
     <t>1,68%</t>
   </si>
   <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
   </si>
   <si>
     <t>10,62%</t>
   </si>
   <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>70,05%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de fruta fresca en 2015 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>62,53%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
   </si>
   <si>
     <t>12,5%</t>
   </si>
   <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>65,45%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumición de fruta fresca en 2015 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>61,56%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>62,53%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>58,48%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>53,22%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>61,06%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
+    <t>14,83%</t>
   </si>
   <si>
     <t>11,34%</t>
@@ -2113,64 +2119,64 @@
     <t>10,29%</t>
   </si>
   <si>
+    <t>12,45%</t>
+  </si>
+  <si>
     <t>12,44%</t>
   </si>
   <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
+    <t>11,67%</t>
   </si>
   <si>
     <t>29,72%</t>
   </si>
   <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
   </si>
   <si>
     <t>27,58%</t>
   </si>
   <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
   </si>
   <si>
     <t>28,63%</t>
   </si>
   <si>
-    <t>27,57%</t>
+    <t>27,56%</t>
   </si>
   <si>
     <t>50,32%</t>
   </si>
   <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
   </si>
   <si>
     <t>55,8%</t>
   </si>
   <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>57,46%</t>
   </si>
   <si>
     <t>53,12%</t>
   </si>
   <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
   </si>
 </sst>
 </file>
@@ -2582,7 +2588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{512F89A1-64BE-4869-987D-A47B279A3A18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE4DEB23-2505-4740-9364-67D6A5F0EC7A}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4563,7 +4569,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12E772BA-572F-40EC-B8A5-8D6C841A2A25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715FD2E3-428A-465F-BEEB-3E4EC9D1B2EA}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4690,10 +4696,10 @@
         <v>273</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>105</v>
+        <v>274</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4705,7 +4711,7 @@
         <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>147</v>
@@ -4717,13 +4723,13 @@
         <v>4022</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4738,13 +4744,13 @@
         <v>6387</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>150</v>
+        <v>281</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -4753,13 +4759,13 @@
         <v>4893</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>282</v>
+        <v>66</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -4768,13 +4774,13 @@
         <v>11280</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>35</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4792,10 +4798,10 @@
         <v>112</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>210</v>
+        <v>289</v>
       </c>
       <c r="H6" s="7">
         <v>8</v>
@@ -4804,13 +4810,13 @@
         <v>8175</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="M6" s="7">
         <v>16</v>
@@ -4819,13 +4825,13 @@
         <v>15646</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4840,13 +4846,13 @@
         <v>25927</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -4855,13 +4861,13 @@
         <v>7753</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="M7" s="7">
         <v>35</v>
@@ -4870,13 +4876,13 @@
         <v>33680</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4891,13 +4897,13 @@
         <v>71958</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="H8" s="7">
         <v>80</v>
@@ -4906,13 +4912,13 @@
         <v>91085</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="M8" s="7">
         <v>154</v>
@@ -4921,13 +4927,13 @@
         <v>163043</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4995,13 +5001,13 @@
         <v>6122</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>277</v>
+        <v>315</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -5010,13 +5016,13 @@
         <v>9221</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>314</v>
+        <v>63</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -5028,10 +5034,10 @@
         <v>195</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>63</v>
+        <v>319</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5046,13 +5052,13 @@
         <v>14558</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>105</v>
+        <v>322</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
@@ -5061,13 +5067,13 @@
         <v>8834</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>236</v>
+        <v>326</v>
       </c>
       <c r="M11" s="7">
         <v>21</v>
@@ -5076,13 +5082,13 @@
         <v>23393</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>195</v>
+        <v>328</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5097,13 +5103,13 @@
         <v>56175</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="H12" s="7">
         <v>37</v>
@@ -5112,13 +5118,13 @@
         <v>39358</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="M12" s="7">
         <v>91</v>
@@ -5127,13 +5133,13 @@
         <v>95534</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5148,13 +5154,13 @@
         <v>134115</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="H13" s="7">
         <v>119</v>
@@ -5163,13 +5169,13 @@
         <v>126950</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="M13" s="7">
         <v>244</v>
@@ -5178,13 +5184,13 @@
         <v>261064</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>340</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5199,13 +5205,13 @@
         <v>376734</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="H14" s="7">
         <v>378</v>
@@ -5214,13 +5220,13 @@
         <v>400782</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="M14" s="7">
         <v>733</v>
@@ -5229,13 +5235,13 @@
         <v>777516</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5303,13 +5309,13 @@
         <v>21294</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -5318,13 +5324,13 @@
         <v>15397</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="M16" s="7">
         <v>33</v>
@@ -5333,13 +5339,13 @@
         <v>36691</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>317</v>
+        <v>364</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5354,13 +5360,13 @@
         <v>38459</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>359</v>
+        <v>326</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="H17" s="7">
         <v>29</v>
@@ -5369,13 +5375,13 @@
         <v>32975</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>245</v>
+        <v>369</v>
       </c>
       <c r="M17" s="7">
         <v>64</v>
@@ -5384,13 +5390,13 @@
         <v>71434</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>364</v>
+        <v>326</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5405,13 +5411,13 @@
         <v>119881</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="H18" s="7">
         <v>72</v>
@@ -5420,13 +5426,13 @@
         <v>77997</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="M18" s="7">
         <v>183</v>
@@ -5435,13 +5441,13 @@
         <v>197878</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5456,13 +5462,13 @@
         <v>246055</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>335</v>
+        <v>382</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="H19" s="7">
         <v>178</v>
@@ -5471,13 +5477,13 @@
         <v>201716</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="M19" s="7">
         <v>405</v>
@@ -5486,13 +5492,13 @@
         <v>447771</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5507,13 +5513,13 @@
         <v>589305</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="H20" s="7">
         <v>647</v>
@@ -5522,13 +5528,13 @@
         <v>703012</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="M20" s="7">
         <v>1187</v>
@@ -5537,13 +5543,13 @@
         <v>1292317</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>187</v>
+        <v>397</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5611,13 +5617,13 @@
         <v>23811</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -5629,10 +5635,10 @@
         <v>60</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>288</v>
+        <v>403</v>
       </c>
       <c r="M22" s="7">
         <v>38</v>
@@ -5641,13 +5647,13 @@
         <v>40270</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>395</v>
+        <v>198</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5662,13 +5668,13 @@
         <v>22222</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>297</v>
+        <v>406</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>397</v>
+        <v>198</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>281</v>
+        <v>407</v>
       </c>
       <c r="H23" s="7">
         <v>25</v>
@@ -5677,13 +5683,13 @@
         <v>29262</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="M23" s="7">
         <v>47</v>
@@ -5695,10 +5701,10 @@
         <v>149</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5713,13 +5719,13 @@
         <v>76678</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="H24" s="7">
         <v>56</v>
@@ -5731,10 +5737,10 @@
         <v>158</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>406</v>
+        <v>240</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="M24" s="7">
         <v>126</v>
@@ -5743,13 +5749,13 @@
         <v>135088</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>409</v>
+        <v>290</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5764,13 +5770,13 @@
         <v>207415</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="H25" s="7">
         <v>168</v>
@@ -5779,13 +5785,13 @@
         <v>187463</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>261</v>
+        <v>424</v>
       </c>
       <c r="M25" s="7">
         <v>353</v>
@@ -5794,13 +5800,13 @@
         <v>394879</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5815,13 +5821,13 @@
         <v>425388</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="H26" s="7">
         <v>440</v>
@@ -5830,13 +5836,13 @@
         <v>483421</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="M26" s="7">
         <v>826</v>
@@ -5845,13 +5851,13 @@
         <v>908809</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5922,10 +5928,10 @@
         <v>71</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="H28" s="7">
         <v>26</v>
@@ -5934,13 +5940,13 @@
         <v>26355</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>432</v>
+        <v>62</v>
       </c>
       <c r="M28" s="7">
         <v>45</v>
@@ -5949,13 +5955,13 @@
         <v>45849</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5970,13 +5976,13 @@
         <v>27129</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>147</v>
+        <v>204</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>115</v>
+        <v>445</v>
       </c>
       <c r="H29" s="7">
         <v>19</v>
@@ -5988,10 +5994,10 @@
         <v>198</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>437</v>
+        <v>61</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="M29" s="7">
         <v>46</v>
@@ -6000,13 +6006,13 @@
         <v>46629</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>276</v>
+        <v>239</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>315</v>
+        <v>443</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6021,13 +6027,13 @@
         <v>123732</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="H30" s="7">
         <v>82</v>
@@ -6036,13 +6042,13 @@
         <v>88277</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="M30" s="7">
         <v>207</v>
@@ -6051,13 +6057,13 @@
         <v>212009</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>300</v>
+        <v>454</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6072,13 +6078,13 @@
         <v>197829</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="H31" s="7">
         <v>174</v>
@@ -6087,13 +6093,13 @@
         <v>180177</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="M31" s="7">
         <v>368</v>
@@ -6102,13 +6108,13 @@
         <v>378006</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>43</v>
+        <v>464</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6123,13 +6129,13 @@
         <v>579554</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="H32" s="7">
         <v>699</v>
@@ -6138,13 +6144,13 @@
         <v>733502</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="M32" s="7">
         <v>1244</v>
@@ -6153,13 +6159,13 @@
         <v>1313056</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6227,13 +6233,13 @@
         <v>74743</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>282</v>
+        <v>20</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="H34" s="7">
         <v>61</v>
@@ -6242,13 +6248,13 @@
         <v>67432</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>397</v>
+        <v>477</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>14</v>
+        <v>359</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>467</v>
+        <v>364</v>
       </c>
       <c r="M34" s="7">
         <v>134</v>
@@ -6257,13 +6263,13 @@
         <v>142175</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>468</v>
+        <v>400</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>239</v>
+        <v>20</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>467</v>
+        <v>361</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6278,13 +6284,13 @@
         <v>108755</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>469</v>
+        <v>318</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>470</v>
+        <v>74</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="H35" s="7">
         <v>86</v>
@@ -6293,13 +6299,13 @@
         <v>95464</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>364</v>
+        <v>479</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>70</v>
+        <v>481</v>
       </c>
       <c r="M35" s="7">
         <v>190</v>
@@ -6308,13 +6314,13 @@
         <v>204219</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>473</v>
+        <v>300</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>474</v>
+        <v>69</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6329,13 +6335,13 @@
         <v>383938</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>478</v>
+        <v>82</v>
       </c>
       <c r="H36" s="7">
         <v>255</v>
@@ -6344,13 +6350,13 @@
         <v>272217</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="M36" s="7">
         <v>623</v>
@@ -6359,13 +6365,13 @@
         <v>656155</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>403</v>
+        <v>490</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6380,13 +6386,13 @@
         <v>811341</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="H37" s="7">
         <v>646</v>
@@ -6395,28 +6401,28 @@
         <v>704059</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="M37" s="7">
         <v>1405</v>
       </c>
       <c r="N37" s="7">
-        <v>1515400</v>
+        <v>1515399</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6428,16 +6434,16 @@
         <v>1900</v>
       </c>
       <c r="D38" s="7">
-        <v>2042940</v>
+        <v>2042939</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>457</v>
+        <v>501</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="H38" s="7">
         <v>2244</v>
@@ -6446,13 +6452,13 @@
         <v>2411801</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>51</v>
+        <v>504</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="M38" s="7">
         <v>4144</v>
@@ -6461,13 +6467,13 @@
         <v>4454740</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>497</v>
+        <v>468</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6479,7 +6485,7 @@
         <v>3204</v>
       </c>
       <c r="D39" s="7">
-        <v>3421717</v>
+        <v>3421716</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>58</v>
@@ -6509,7 +6515,7 @@
         <v>6496</v>
       </c>
       <c r="N39" s="7">
-        <v>6972689</v>
+        <v>6972688</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>58</v>
@@ -6544,7 +6550,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B13F0FF2-79AD-44A7-88CC-4E8E5BC875A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D081F6AB-E7BA-47D1-A7DB-2078E01367A6}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6561,7 +6567,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6671,10 +6677,10 @@
         <v>27</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>356</v>
+        <v>509</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -6686,10 +6692,10 @@
         <v>207</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>195</v>
+        <v>511</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -6698,13 +6704,13 @@
         <v>10387</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>365</v>
+        <v>513</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>503</v>
+        <v>480</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6719,13 +6725,13 @@
         <v>1928</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -6734,13 +6740,13 @@
         <v>7043</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>508</v>
+        <v>404</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>509</v>
+        <v>165</v>
       </c>
       <c r="M5" s="7">
         <v>9</v>
@@ -6749,13 +6755,13 @@
         <v>8971</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6770,13 +6776,13 @@
         <v>14692</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="H6" s="7">
         <v>19</v>
@@ -6785,13 +6791,13 @@
         <v>19380</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="M6" s="7">
         <v>33</v>
@@ -6800,13 +6806,13 @@
         <v>34072</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6824,10 +6830,10 @@
         <v>261</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="H7" s="7">
         <v>19</v>
@@ -6836,13 +6842,13 @@
         <v>17383</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="M7" s="7">
         <v>51</v>
@@ -6851,13 +6857,13 @@
         <v>49189</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6872,13 +6878,13 @@
         <v>62091</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>530</v>
+        <v>138</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="H8" s="7">
         <v>66</v>
@@ -6887,13 +6893,13 @@
         <v>65195</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="M8" s="7">
         <v>125</v>
@@ -6902,13 +6908,13 @@
         <v>127287</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6976,13 +6982,13 @@
         <v>16953</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>540</v>
+        <v>15</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -6991,13 +6997,13 @@
         <v>9766</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -7006,13 +7012,13 @@
         <v>26719</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>545</v>
+        <v>154</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>546</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7027,13 +7033,13 @@
         <v>23235</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>548</v>
+        <v>203</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="H11" s="7">
         <v>22</v>
@@ -7042,13 +7048,13 @@
         <v>21797</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="M11" s="7">
         <v>43</v>
@@ -7060,10 +7066,10 @@
         <v>18</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>553</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7078,13 +7084,13 @@
         <v>66681</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>556</v>
+        <v>127</v>
       </c>
       <c r="H12" s="7">
         <v>59</v>
@@ -7144,13 +7150,13 @@
         <v>141279</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>566</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>567</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>568</v>
       </c>
       <c r="M13" s="7">
         <v>300</v>
@@ -7159,10 +7165,10 @@
         <v>300999</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>569</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>412</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>570</v>
@@ -7210,7 +7216,7 @@
         <v>618188</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>577</v>
@@ -7284,7 +7290,7 @@
         <v>21771</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>362</v>
+        <v>316</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>579</v>
@@ -7299,13 +7305,13 @@
         <v>22477</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>472</v>
+        <v>581</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>581</v>
+        <v>399</v>
       </c>
       <c r="M16" s="7">
         <v>43</v>
@@ -7317,10 +7323,10 @@
         <v>582</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>545</v>
+        <v>154</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>236</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7338,7 +7344,7 @@
         <v>583</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>285</v>
+        <v>326</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>584</v>
@@ -7353,10 +7359,10 @@
         <v>585</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>355</v>
+        <v>586</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M17" s="7">
         <v>72</v>
@@ -7365,13 +7371,13 @@
         <v>76271</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>589</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7392,7 +7398,7 @@
         <v>591</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>515</v>
+        <v>592</v>
       </c>
       <c r="H18" s="7">
         <v>133</v>
@@ -7401,13 +7407,13 @@
         <v>140145</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="M18" s="7">
         <v>272</v>
@@ -7416,13 +7422,13 @@
         <v>290757</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>595</v>
+        <v>374</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>596</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>247</v>
+        <v>597</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7437,13 +7443,13 @@
         <v>301476</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H19" s="7">
         <v>289</v>
@@ -7452,13 +7458,13 @@
         <v>303017</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="M19" s="7">
         <v>569</v>
@@ -7467,13 +7473,13 @@
         <v>604494</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7488,13 +7494,13 @@
         <v>507328</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>232</v>
+        <v>608</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="H20" s="7">
         <v>494</v>
@@ -7503,13 +7509,13 @@
         <v>535718</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="M20" s="7">
         <v>967</v>
@@ -7518,13 +7524,13 @@
         <v>1043047</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7595,10 +7601,10 @@
         <v>147</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>26</v>
+        <v>314</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>581</v>
+        <v>438</v>
       </c>
       <c r="H22" s="7">
         <v>13</v>
@@ -7607,13 +7613,13 @@
         <v>12731</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>431</v>
+        <v>616</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="M22" s="7">
         <v>26</v>
@@ -7622,13 +7628,13 @@
         <v>27307</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7643,13 +7649,13 @@
         <v>31768</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>619</v>
+        <v>192</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="H23" s="7">
         <v>21</v>
@@ -7661,10 +7667,10 @@
         <v>116</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>318</v>
+        <v>624</v>
       </c>
       <c r="M23" s="7">
         <v>49</v>
@@ -7673,13 +7679,13 @@
         <v>53814</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>470</v>
+        <v>409</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7694,13 +7700,13 @@
         <v>122108</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>624</v>
+        <v>562</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>625</v>
+        <v>528</v>
       </c>
       <c r="H24" s="7">
         <v>83</v>
@@ -7709,13 +7715,13 @@
         <v>88046</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>168</v>
+        <v>627</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="M24" s="7">
         <v>189</v>
@@ -7724,13 +7730,13 @@
         <v>210153</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7745,13 +7751,13 @@
         <v>248681</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>631</v>
+        <v>604</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H25" s="7">
         <v>265</v>
@@ -7760,13 +7766,13 @@
         <v>277677</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="M25" s="7">
         <v>496</v>
@@ -7778,10 +7784,10 @@
         <v>47</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7796,13 +7802,13 @@
         <v>341433</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H26" s="7">
         <v>354</v>
@@ -7811,13 +7817,13 @@
         <v>384512</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="M26" s="7">
         <v>671</v>
@@ -7826,13 +7832,13 @@
         <v>725944</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7900,13 +7906,13 @@
         <v>27182</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>648</v>
+        <v>477</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>649</v>
+        <v>621</v>
       </c>
       <c r="H28" s="7">
         <v>21</v>
@@ -7915,13 +7921,13 @@
         <v>22165</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>650</v>
+        <v>320</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>361</v>
+        <v>199</v>
       </c>
       <c r="M28" s="7">
         <v>47</v>
@@ -7930,13 +7936,13 @@
         <v>49347</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>653</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7954,10 +7960,10 @@
         <v>585</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>399</v>
+        <v>150</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="H29" s="7">
         <v>25</v>
@@ -7966,13 +7972,13 @@
         <v>26356</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>355</v>
+        <v>409</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>154</v>
+        <v>652</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>288</v>
+        <v>653</v>
       </c>
       <c r="M29" s="7">
         <v>59</v>
@@ -7984,10 +7990,10 @@
         <v>196</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>655</v>
+        <v>67</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>194</v>
+        <v>654</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8002,13 +8008,13 @@
         <v>106201</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>656</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>657</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>658</v>
       </c>
       <c r="H30" s="7">
         <v>92</v>
@@ -8017,13 +8023,13 @@
         <v>94714</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>659</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>660</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>661</v>
       </c>
       <c r="M30" s="7">
         <v>198</v>
@@ -8032,13 +8038,13 @@
         <v>200915</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>477</v>
+        <v>661</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>662</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>663</v>
+        <v>594</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8053,13 +8059,13 @@
         <v>265076</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>664</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>665</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>666</v>
       </c>
       <c r="H31" s="7">
         <v>221</v>
@@ -8068,13 +8074,13 @@
         <v>236736</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>667</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>668</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>669</v>
       </c>
       <c r="M31" s="7">
         <v>490</v>
@@ -8083,13 +8089,13 @@
         <v>501812</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>670</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>671</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8104,13 +8110,13 @@
         <v>503079</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>185</v>
+        <v>672</v>
       </c>
       <c r="H32" s="7">
         <v>598</v>
@@ -8119,13 +8125,13 @@
         <v>661700</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>674</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>675</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>676</v>
       </c>
       <c r="M32" s="7">
         <v>1093</v>
@@ -8134,13 +8140,13 @@
         <v>1164779</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>677</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>678</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8211,10 +8217,10 @@
         <v>69</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>193</v>
+        <v>356</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>469</v>
+        <v>318</v>
       </c>
       <c r="H34" s="7">
         <v>70</v>
@@ -8223,13 +8229,13 @@
         <v>71497</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>680</v>
       </c>
-      <c r="K34" s="7" t="s">
-        <v>313</v>
-      </c>
       <c r="L34" s="7" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="M34" s="7">
         <v>150</v>
@@ -8244,7 +8250,7 @@
         <v>681</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>548</v>
+        <v>682</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8259,13 +8265,13 @@
         <v>129441</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>469</v>
+        <v>684</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>365</v>
+        <v>685</v>
       </c>
       <c r="H35" s="7">
         <v>111</v>
@@ -8274,13 +8280,13 @@
         <v>115076</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>683</v>
+        <v>358</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>285</v>
+        <v>150</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>684</v>
+        <v>207</v>
       </c>
       <c r="M35" s="7">
         <v>232</v>
@@ -8289,13 +8295,13 @@
         <v>244517</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>685</v>
+        <v>653</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>315</v>
+        <v>686</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>194</v>
+        <v>687</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8310,13 +8316,13 @@
         <v>460293</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="H36" s="7">
         <v>386</v>
@@ -8325,13 +8331,13 @@
         <v>401349</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>31</v>
+        <v>693</v>
       </c>
       <c r="M36" s="7">
         <v>812</v>
@@ -8340,13 +8346,13 @@
         <v>861642</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>693</v>
+        <v>215</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8361,13 +8367,13 @@
         <v>1006760</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="H37" s="7">
         <v>936</v>
@@ -8376,13 +8382,13 @@
         <v>976093</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="M37" s="7">
         <v>1906</v>
@@ -8391,13 +8397,13 @@
         <v>1982852</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>694</v>
+        <v>570</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8412,13 +8418,13 @@
         <v>1704546</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="H38" s="7">
         <v>1830</v>
@@ -8427,13 +8433,13 @@
         <v>1974697</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="M38" s="7">
         <v>3458</v>
@@ -8442,13 +8448,13 @@
         <v>3679244</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P36B06-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B06-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39C0BC5B-C714-4D9B-B8B2-855F4C9261DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{82230456-2C34-4108-AF6E-C7278ED5E452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{536EA731-594E-45DD-A4C6-A059894BF3E3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EC4B6217-12CA-4B41-BE5D-2862F0F709FC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,9 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="713">
-  <si>
-    <t>Población según la frecuencia de consumición de fruta fresca en 2007 (Tasa respuesta: 99,92%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="730">
+  <si>
+    <t>Población según la frecuencia de consumo de fruta fresca en 2007 (Tasa respuesta: 99,92%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Nunca o casi nunca</t>
@@ -79,2104 +79,2155 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>6,4%</t>
+    <t>5,84%</t>
   </si>
   <si>
     <t>1,41%</t>
   </si>
   <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>Menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>61,73%</t>
+  </si>
+  <si>
+    <t>53,97%</t>
+  </si>
+  <si>
+    <t>70,61%</t>
+  </si>
+  <si>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>52,69%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
     <t>4,99%</t>
   </si>
   <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>57,32%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>54,87%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de fruta fresca en 2012 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>68,04%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de fruta fresca en 2016 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
   </si>
   <si>
     <t>4,03%</t>
   </si>
   <si>
-    <t>Menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
   </si>
   <si>
     <t>12,51%</t>
   </si>
   <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>61,73%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>53,03%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>63,95%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de fruta fresca en 2012 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>65,35%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de fruta fresca en 2015 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
   </si>
   <si>
     <t>13,27%</t>
   </si>
   <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>62,53%</t>
-  </si>
-  <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
   </si>
   <si>
     <t>48,47%</t>
   </si>
   <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>66,22%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
+    <t>51,89%</t>
   </si>
   <si>
     <t>55,8%</t>
   </si>
   <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>57,46%</t>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
   </si>
   <si>
     <t>53,12%</t>
   </si>
   <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
   </si>
 </sst>
 </file>
@@ -2588,7 +2639,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE4DEB23-2505-4740-9364-67D6A5F0EC7A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2618B042-ED65-4402-9E6A-9B9318F64422}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3041,7 +3092,7 @@
         <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
@@ -3053,10 +3104,10 @@
         <v>14</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3071,13 +3122,13 @@
         <v>22794</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H11" s="7">
         <v>19</v>
@@ -3346,10 +3397,10 @@
         <v>107</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M16" s="7">
         <v>34</v>
@@ -3358,13 +3409,13 @@
         <v>37795</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3379,13 +3430,13 @@
         <v>61954</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H17" s="7">
         <v>36</v>
@@ -3394,13 +3445,13 @@
         <v>39221</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M17" s="7">
         <v>91</v>
@@ -3409,13 +3460,13 @@
         <v>101176</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3430,13 +3481,13 @@
         <v>172929</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H18" s="7">
         <v>143</v>
@@ -3445,13 +3496,13 @@
         <v>150674</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M18" s="7">
         <v>302</v>
@@ -3460,13 +3511,13 @@
         <v>323603</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3481,13 +3532,13 @@
         <v>250702</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H19" s="7">
         <v>218</v>
@@ -3496,13 +3547,13 @@
         <v>228716</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M19" s="7">
         <v>450</v>
@@ -3511,13 +3562,13 @@
         <v>479418</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3532,13 +3583,13 @@
         <v>455301</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H20" s="7">
         <v>493</v>
@@ -3547,13 +3598,13 @@
         <v>530798</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M20" s="7">
         <v>925</v>
@@ -3562,13 +3613,13 @@
         <v>986100</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3624,7 +3675,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3636,13 +3687,13 @@
         <v>13037</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>18</v>
@@ -3651,13 +3702,13 @@
         <v>18040</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>29</v>
@@ -3666,13 +3717,13 @@
         <v>31077</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3687,13 +3738,13 @@
         <v>36859</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H23" s="7">
         <v>23</v>
@@ -3702,13 +3753,13 @@
         <v>22282</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="M23" s="7">
         <v>59</v>
@@ -3717,13 +3768,13 @@
         <v>59141</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3738,13 +3789,13 @@
         <v>101604</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H24" s="7">
         <v>80</v>
@@ -3753,13 +3804,13 @@
         <v>77654</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M24" s="7">
         <v>178</v>
@@ -3768,13 +3819,13 @@
         <v>179258</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3789,13 +3840,13 @@
         <v>198843</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="H25" s="7">
         <v>175</v>
@@ -3804,13 +3855,13 @@
         <v>173271</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="M25" s="7">
         <v>360</v>
@@ -3819,13 +3870,13 @@
         <v>372113</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3840,13 +3891,13 @@
         <v>328167</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H26" s="7">
         <v>400</v>
@@ -3855,13 +3906,13 @@
         <v>392594</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="M26" s="7">
         <v>711</v>
@@ -3870,13 +3921,13 @@
         <v>720761</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3932,7 +3983,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3944,13 +3995,13 @@
         <v>26801</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H28" s="7">
         <v>21</v>
@@ -3959,13 +4010,13 @@
         <v>21426</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>71</v>
+        <v>198</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="M28" s="7">
         <v>50</v>
@@ -3974,13 +4025,13 @@
         <v>48226</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3995,13 +4046,13 @@
         <v>63446</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H29" s="7">
         <v>28</v>
@@ -4010,13 +4061,13 @@
         <v>29289</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>204</v>
+        <v>71</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>205</v>
+        <v>116</v>
       </c>
       <c r="M29" s="7">
         <v>97</v>
@@ -4025,13 +4076,13 @@
         <v>92735</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>207</v>
+        <v>18</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4046,13 +4097,13 @@
         <v>148747</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H30" s="7">
         <v>144</v>
@@ -4061,13 +4112,13 @@
         <v>147367</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>84</v>
+        <v>213</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M30" s="7">
         <v>301</v>
@@ -4076,13 +4127,13 @@
         <v>296114</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4097,13 +4148,13 @@
         <v>283268</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H31" s="7">
         <v>282</v>
@@ -4112,13 +4163,13 @@
         <v>294380</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>221</v>
+        <v>179</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M31" s="7">
         <v>573</v>
@@ -4127,13 +4178,13 @@
         <v>577649</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4148,13 +4199,13 @@
         <v>419078</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H32" s="7">
         <v>521</v>
@@ -4163,13 +4214,13 @@
         <v>545174</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>190</v>
+        <v>232</v>
       </c>
       <c r="M32" s="7">
         <v>968</v>
@@ -4178,13 +4229,13 @@
         <v>964252</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4252,13 +4303,13 @@
         <v>74106</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H34" s="7">
         <v>62</v>
@@ -4267,10 +4318,10 @@
         <v>63049</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>25</v>
@@ -4282,13 +4333,13 @@
         <v>137155</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>71</v>
+        <v>198</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>197</v>
+        <v>241</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4303,13 +4354,13 @@
         <v>187038</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H35" s="7">
         <v>110</v>
@@ -4318,13 +4369,13 @@
         <v>113213</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>194</v>
+        <v>247</v>
       </c>
       <c r="M35" s="7">
         <v>294</v>
@@ -4333,13 +4384,13 @@
         <v>300251</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>115</v>
+        <v>249</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4354,13 +4405,13 @@
         <v>516574</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="H36" s="7">
         <v>440</v>
@@ -4369,13 +4420,13 @@
         <v>444465</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="M36" s="7">
         <v>949</v>
@@ -4384,13 +4435,13 @@
         <v>961039</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4405,13 +4456,13 @@
         <v>944294</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="H37" s="7">
         <v>852</v>
@@ -4420,13 +4471,13 @@
         <v>870825</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="M37" s="7">
         <v>1767</v>
@@ -4435,13 +4486,13 @@
         <v>1815119</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>220</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4456,13 +4507,13 @@
         <v>1551659</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="H38" s="7">
         <v>1831</v>
@@ -4471,13 +4522,13 @@
         <v>1885611</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="M38" s="7">
         <v>3363</v>
@@ -4486,13 +4537,13 @@
         <v>3437270</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>269</v>
+        <v>101</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>139</v>
+        <v>273</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4548,7 +4599,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -4569,7 +4620,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715FD2E3-428A-465F-BEEB-3E4EC9D1B2EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBF8E560-448C-406C-BA39-325D1E39C9DF}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4586,7 +4637,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4693,13 +4744,13 @@
         <v>4022</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4711,10 +4762,10 @@
         <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -4723,13 +4774,13 @@
         <v>4022</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>277</v>
+        <v>237</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4744,13 +4795,13 @@
         <v>6387</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>281</v>
+        <v>74</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -4759,13 +4810,13 @@
         <v>4893</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>66</v>
+        <v>151</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -4774,13 +4825,13 @@
         <v>11280</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4795,13 +4846,13 @@
         <v>7471</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H6" s="7">
         <v>8</v>
@@ -4810,13 +4861,13 @@
         <v>8175</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="M6" s="7">
         <v>16</v>
@@ -4825,13 +4876,13 @@
         <v>15646</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4846,13 +4897,13 @@
         <v>25927</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -4861,13 +4912,13 @@
         <v>7753</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="M7" s="7">
         <v>35</v>
@@ -4876,13 +4927,13 @@
         <v>33680</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4897,13 +4948,13 @@
         <v>71958</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H8" s="7">
         <v>80</v>
@@ -4912,13 +4963,13 @@
         <v>91085</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M8" s="7">
         <v>154</v>
@@ -4927,13 +4978,13 @@
         <v>163043</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5001,13 +5052,13 @@
         <v>6122</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -5016,13 +5067,13 @@
         <v>9221</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>320</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -5031,13 +5082,13 @@
         <v>15343</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>195</v>
+        <v>322</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5052,13 +5103,13 @@
         <v>14558</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
@@ -5067,13 +5118,13 @@
         <v>8834</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="M11" s="7">
         <v>21</v>
@@ -5082,13 +5133,13 @@
         <v>23393</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>328</v>
+        <v>61</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5103,13 +5154,13 @@
         <v>56175</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>332</v>
+        <v>77</v>
       </c>
       <c r="H12" s="7">
         <v>37</v>
@@ -5118,13 +5169,13 @@
         <v>39358</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M12" s="7">
         <v>91</v>
@@ -5133,13 +5184,13 @@
         <v>95534</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5154,13 +5205,13 @@
         <v>134115</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H13" s="7">
         <v>119</v>
@@ -5169,13 +5220,13 @@
         <v>126950</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M13" s="7">
         <v>244</v>
@@ -5184,13 +5235,13 @@
         <v>261064</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>180</v>
+        <v>348</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5205,13 +5256,13 @@
         <v>376734</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H14" s="7">
         <v>378</v>
@@ -5220,13 +5271,13 @@
         <v>400782</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="M14" s="7">
         <v>733</v>
@@ -5235,13 +5286,13 @@
         <v>777516</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5309,13 +5360,13 @@
         <v>21294</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>358</v>
+        <v>203</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -5324,13 +5375,13 @@
         <v>15397</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M16" s="7">
         <v>33</v>
@@ -5339,13 +5390,13 @@
         <v>36691</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5360,13 +5411,13 @@
         <v>38459</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>326</v>
+        <v>367</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="H17" s="7">
         <v>29</v>
@@ -5375,13 +5426,13 @@
         <v>32975</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="M17" s="7">
         <v>64</v>
@@ -5390,13 +5441,13 @@
         <v>71434</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>326</v>
+        <v>288</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5411,13 +5462,13 @@
         <v>119881</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="H18" s="7">
         <v>72</v>
@@ -5426,13 +5477,13 @@
         <v>77997</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="M18" s="7">
         <v>183</v>
@@ -5441,13 +5492,13 @@
         <v>197878</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5462,13 +5513,13 @@
         <v>246055</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="H19" s="7">
         <v>178</v>
@@ -5477,13 +5528,13 @@
         <v>201716</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="M19" s="7">
         <v>405</v>
@@ -5492,13 +5543,13 @@
         <v>447771</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5513,13 +5564,13 @@
         <v>589305</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="H20" s="7">
         <v>647</v>
@@ -5528,13 +5579,13 @@
         <v>703012</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="M20" s="7">
         <v>1187</v>
@@ -5543,13 +5594,13 @@
         <v>1292317</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5605,7 +5656,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5617,13 +5668,13 @@
         <v>23811</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>399</v>
+        <v>321</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -5635,10 +5686,10 @@
         <v>60</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M22" s="7">
         <v>38</v>
@@ -5647,13 +5698,13 @@
         <v>40270</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>404</v>
+        <v>74</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>198</v>
+        <v>405</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>405</v>
+        <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5671,10 +5722,10 @@
         <v>406</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>198</v>
+        <v>110</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>407</v>
+        <v>248</v>
       </c>
       <c r="H23" s="7">
         <v>25</v>
@@ -5683,13 +5734,13 @@
         <v>29262</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>410</v>
       </c>
       <c r="M23" s="7">
         <v>47</v>
@@ -5698,13 +5749,13 @@
         <v>51484</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>149</v>
+        <v>410</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>411</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>412</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5719,13 +5770,13 @@
         <v>76678</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>415</v>
       </c>
       <c r="H24" s="7">
         <v>56</v>
@@ -5734,13 +5785,13 @@
         <v>58410</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>158</v>
+        <v>415</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>240</v>
+        <v>416</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M24" s="7">
         <v>126</v>
@@ -5749,13 +5800,13 @@
         <v>135088</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>290</v>
+        <v>419</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5770,13 +5821,13 @@
         <v>207415</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="H25" s="7">
         <v>168</v>
@@ -5785,13 +5836,13 @@
         <v>187463</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="M25" s="7">
         <v>353</v>
@@ -5800,13 +5851,13 @@
         <v>394879</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5821,13 +5872,13 @@
         <v>425388</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="H26" s="7">
         <v>440</v>
@@ -5836,13 +5887,13 @@
         <v>483421</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="M26" s="7">
         <v>826</v>
@@ -5851,13 +5902,13 @@
         <v>908809</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5913,7 +5964,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5925,13 +5976,13 @@
         <v>19495</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>71</v>
+        <v>198</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>438</v>
+        <v>70</v>
       </c>
       <c r="H28" s="7">
         <v>26</v>
@@ -5940,13 +5991,13 @@
         <v>26355</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>62</v>
+        <v>442</v>
       </c>
       <c r="M28" s="7">
         <v>45</v>
@@ -5955,13 +6006,13 @@
         <v>45849</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>443</v>
+        <v>331</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5976,13 +6027,13 @@
         <v>27129</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>204</v>
+        <v>405</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H29" s="7">
         <v>19</v>
@@ -5991,13 +6042,13 @@
         <v>19500</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>198</v>
+        <v>447</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>61</v>
+        <v>448</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="M29" s="7">
         <v>46</v>
@@ -6006,13 +6057,13 @@
         <v>46629</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>239</v>
+        <v>451</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6027,13 +6078,13 @@
         <v>123732</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="H30" s="7">
         <v>82</v>
@@ -6042,13 +6093,13 @@
         <v>88277</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="M30" s="7">
         <v>207</v>
@@ -6057,13 +6108,13 @@
         <v>212009</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>454</v>
+        <v>305</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6078,13 +6129,13 @@
         <v>197829</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="H31" s="7">
         <v>174</v>
@@ -6093,13 +6144,13 @@
         <v>180177</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="M31" s="7">
         <v>368</v>
@@ -6108,13 +6159,13 @@
         <v>378006</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6129,13 +6180,13 @@
         <v>579554</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="H32" s="7">
         <v>699</v>
@@ -6144,13 +6195,13 @@
         <v>733502</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="M32" s="7">
         <v>1244</v>
@@ -6159,13 +6210,13 @@
         <v>1313056</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6233,13 +6284,13 @@
         <v>74743</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="H34" s="7">
         <v>61</v>
@@ -6248,13 +6299,13 @@
         <v>67432</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>477</v>
+        <v>405</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>359</v>
+        <v>481</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>364</v>
+        <v>482</v>
       </c>
       <c r="M34" s="7">
         <v>134</v>
@@ -6263,13 +6314,13 @@
         <v>142175</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>20</v>
+        <v>483</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>361</v>
+        <v>482</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6284,13 +6335,13 @@
         <v>108755</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>318</v>
+        <v>106</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>74</v>
+        <v>484</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="H35" s="7">
         <v>86</v>
@@ -6299,13 +6350,13 @@
         <v>95464</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="M35" s="7">
         <v>190</v>
@@ -6314,13 +6365,13 @@
         <v>204219</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>69</v>
+        <v>489</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>482</v>
+        <v>410</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6335,13 +6386,13 @@
         <v>383938</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>484</v>
+        <v>286</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>82</v>
+        <v>491</v>
       </c>
       <c r="H36" s="7">
         <v>255</v>
@@ -6350,13 +6401,13 @@
         <v>272217</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="M36" s="7">
         <v>623</v>
@@ -6365,13 +6416,13 @@
         <v>656155</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6386,13 +6437,13 @@
         <v>811341</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="H37" s="7">
         <v>646</v>
@@ -6401,28 +6452,28 @@
         <v>704059</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="M37" s="7">
         <v>1405</v>
       </c>
       <c r="N37" s="7">
-        <v>1515399</v>
+        <v>1515400</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>499</v>
+        <v>340</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6437,13 +6488,13 @@
         <v>2042939</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="H38" s="7">
         <v>2244</v>
@@ -6452,13 +6503,13 @@
         <v>2411801</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="M38" s="7">
         <v>4144</v>
@@ -6467,13 +6518,13 @@
         <v>4454740</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>468</v>
+        <v>512</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>507</v>
+        <v>314</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6515,7 +6566,7 @@
         <v>6496</v>
       </c>
       <c r="N39" s="7">
-        <v>6972688</v>
+        <v>6972689</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>58</v>
@@ -6529,7 +6580,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -6550,7 +6601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D081F6AB-E7BA-47D1-A7DB-2078E01367A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CE19F0B-7990-4D6C-A02B-DA17D30AB5E0}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6567,7 +6618,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6674,13 +6725,13 @@
         <v>6029</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>27</v>
+        <v>515</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -6689,13 +6740,13 @@
         <v>4358</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>207</v>
+        <v>485</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -6704,13 +6755,13 @@
         <v>10387</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>480</v>
+        <v>521</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6725,13 +6776,13 @@
         <v>1928</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -6740,13 +6791,13 @@
         <v>7043</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>404</v>
+        <v>526</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>165</v>
+        <v>81</v>
       </c>
       <c r="M5" s="7">
         <v>9</v>
@@ -6755,13 +6806,13 @@
         <v>8971</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6776,13 +6827,13 @@
         <v>14692</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="H6" s="7">
         <v>19</v>
@@ -6791,13 +6842,13 @@
         <v>19380</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="M6" s="7">
         <v>33</v>
@@ -6806,13 +6857,13 @@
         <v>34072</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>522</v>
+        <v>537</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6827,13 +6878,13 @@
         <v>31806</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="H7" s="7">
         <v>19</v>
@@ -6842,13 +6893,13 @@
         <v>17383</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="M7" s="7">
         <v>51</v>
@@ -6857,13 +6908,13 @@
         <v>49189</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>534</v>
+        <v>544</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6878,13 +6929,13 @@
         <v>62091</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>536</v>
+        <v>308</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>138</v>
+        <v>546</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="H8" s="7">
         <v>66</v>
@@ -6893,13 +6944,13 @@
         <v>65195</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="M8" s="7">
         <v>125</v>
@@ -6908,13 +6959,13 @@
         <v>127287</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6982,13 +7033,13 @@
         <v>16953</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>544</v>
+        <v>452</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>15</v>
+        <v>555</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -6997,13 +7048,13 @@
         <v>9766</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>547</v>
+        <v>557</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>548</v>
+        <v>452</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -7012,13 +7063,13 @@
         <v>26719</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>154</v>
+        <v>559</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>291</v>
+        <v>560</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7033,13 +7084,13 @@
         <v>23235</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>203</v>
+        <v>562</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="H11" s="7">
         <v>22</v>
@@ -7048,13 +7099,13 @@
         <v>21797</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>552</v>
+        <v>482</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="M11" s="7">
         <v>43</v>
@@ -7063,13 +7114,13 @@
         <v>45033</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>18</v>
+        <v>565</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>554</v>
+        <v>22</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>156</v>
+        <v>566</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7084,13 +7135,13 @@
         <v>66681</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>127</v>
+        <v>569</v>
       </c>
       <c r="H12" s="7">
         <v>59</v>
@@ -7099,13 +7150,13 @@
         <v>59064</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>557</v>
+        <v>570</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>558</v>
+        <v>571</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>559</v>
+        <v>572</v>
       </c>
       <c r="M12" s="7">
         <v>120</v>
@@ -7114,13 +7165,13 @@
         <v>125745</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>560</v>
+        <v>573</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>561</v>
+        <v>574</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7135,13 +7186,13 @@
         <v>159720</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>565</v>
+        <v>578</v>
       </c>
       <c r="H13" s="7">
         <v>142</v>
@@ -7150,13 +7201,13 @@
         <v>141279</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>525</v>
+        <v>579</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>566</v>
+        <v>580</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>567</v>
+        <v>581</v>
       </c>
       <c r="M13" s="7">
         <v>300</v>
@@ -7165,13 +7216,13 @@
         <v>300999</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>568</v>
+        <v>582</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>569</v>
+        <v>583</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>570</v>
+        <v>584</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7186,13 +7237,13 @@
         <v>290615</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>571</v>
+        <v>585</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>572</v>
+        <v>586</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>573</v>
+        <v>587</v>
       </c>
       <c r="H14" s="7">
         <v>318</v>
@@ -7201,13 +7252,13 @@
         <v>327573</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>574</v>
+        <v>588</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>576</v>
+        <v>513</v>
       </c>
       <c r="M14" s="7">
         <v>602</v>
@@ -7216,13 +7267,13 @@
         <v>618188</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>577</v>
+        <v>590</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>578</v>
+        <v>591</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7290,13 +7341,13 @@
         <v>21771</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>316</v>
+        <v>592</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>579</v>
+        <v>322</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>580</v>
+        <v>593</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -7305,13 +7356,13 @@
         <v>22477</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>581</v>
+        <v>521</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>594</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>399</v>
+        <v>595</v>
       </c>
       <c r="M16" s="7">
         <v>43</v>
@@ -7320,13 +7371,13 @@
         <v>44248</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>582</v>
+        <v>487</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>154</v>
+        <v>596</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>203</v>
+        <v>597</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7341,13 +7392,13 @@
         <v>38438</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>583</v>
+        <v>598</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>326</v>
+        <v>599</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>584</v>
+        <v>205</v>
       </c>
       <c r="H17" s="7">
         <v>36</v>
@@ -7356,13 +7407,13 @@
         <v>37833</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>585</v>
+        <v>62</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>586</v>
+        <v>153</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>587</v>
+        <v>600</v>
       </c>
       <c r="M17" s="7">
         <v>72</v>
@@ -7371,13 +7422,13 @@
         <v>76271</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>588</v>
+        <v>601</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>589</v>
+        <v>602</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>206</v>
+        <v>603</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7392,13 +7443,13 @@
         <v>150611</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>590</v>
+        <v>604</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>591</v>
+        <v>291</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>592</v>
+        <v>605</v>
       </c>
       <c r="H18" s="7">
         <v>133</v>
@@ -7407,13 +7458,13 @@
         <v>140145</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>593</v>
+        <v>606</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>594</v>
+        <v>607</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>595</v>
+        <v>608</v>
       </c>
       <c r="M18" s="7">
         <v>272</v>
@@ -7422,13 +7473,13 @@
         <v>290757</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>374</v>
+        <v>609</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>596</v>
+        <v>610</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>597</v>
+        <v>611</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7443,13 +7494,13 @@
         <v>301476</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>598</v>
+        <v>612</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>599</v>
+        <v>613</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>600</v>
+        <v>614</v>
       </c>
       <c r="H19" s="7">
         <v>289</v>
@@ -7458,13 +7509,13 @@
         <v>303017</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>601</v>
+        <v>615</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>602</v>
+        <v>265</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>603</v>
+        <v>616</v>
       </c>
       <c r="M19" s="7">
         <v>569</v>
@@ -7473,13 +7524,13 @@
         <v>604494</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>604</v>
+        <v>617</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>605</v>
+        <v>618</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>606</v>
+        <v>619</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7494,13 +7545,13 @@
         <v>507328</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>607</v>
+        <v>620</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>608</v>
+        <v>621</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>609</v>
+        <v>622</v>
       </c>
       <c r="H20" s="7">
         <v>494</v>
@@ -7509,13 +7560,13 @@
         <v>535718</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>610</v>
+        <v>623</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>611</v>
+        <v>624</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>612</v>
+        <v>625</v>
       </c>
       <c r="M20" s="7">
         <v>967</v>
@@ -7524,13 +7575,13 @@
         <v>1043047</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>613</v>
+        <v>626</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>614</v>
+        <v>185</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7586,7 +7637,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7598,13 +7649,13 @@
         <v>14576</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>314</v>
+        <v>108</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>438</v>
+        <v>106</v>
       </c>
       <c r="H22" s="7">
         <v>13</v>
@@ -7613,13 +7664,13 @@
         <v>12731</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>616</v>
+        <v>444</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>617</v>
+        <v>628</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>618</v>
+        <v>629</v>
       </c>
       <c r="M22" s="7">
         <v>26</v>
@@ -7628,13 +7679,13 @@
         <v>27307</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>277</v>
+        <v>237</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>619</v>
+        <v>403</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>620</v>
+        <v>630</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7649,13 +7700,13 @@
         <v>31768</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>621</v>
+        <v>120</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>192</v>
+        <v>631</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>622</v>
+        <v>632</v>
       </c>
       <c r="H23" s="7">
         <v>21</v>
@@ -7664,13 +7715,13 @@
         <v>22046</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>116</v>
+        <v>633</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>623</v>
+        <v>634</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>624</v>
+        <v>635</v>
       </c>
       <c r="M23" s="7">
         <v>49</v>
@@ -7679,13 +7730,13 @@
         <v>53814</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>409</v>
+        <v>153</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>625</v>
+        <v>636</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7700,13 +7751,13 @@
         <v>122108</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>626</v>
+        <v>637</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>528</v>
+        <v>638</v>
       </c>
       <c r="H24" s="7">
         <v>83</v>
@@ -7715,13 +7766,13 @@
         <v>88046</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>627</v>
+        <v>289</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>628</v>
+        <v>606</v>
       </c>
       <c r="M24" s="7">
         <v>189</v>
@@ -7730,13 +7781,13 @@
         <v>210153</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>629</v>
+        <v>639</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>630</v>
+        <v>640</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7751,13 +7802,13 @@
         <v>248681</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>632</v>
+        <v>642</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>604</v>
+        <v>643</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>633</v>
+        <v>644</v>
       </c>
       <c r="H25" s="7">
         <v>265</v>
@@ -7766,13 +7817,13 @@
         <v>277677</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>634</v>
+        <v>645</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>635</v>
+        <v>646</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>636</v>
+        <v>647</v>
       </c>
       <c r="M25" s="7">
         <v>496</v>
@@ -7781,13 +7832,13 @@
         <v>526358</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>47</v>
+        <v>648</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>637</v>
+        <v>649</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>638</v>
+        <v>650</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7802,13 +7853,13 @@
         <v>341433</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>639</v>
+        <v>651</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>640</v>
+        <v>652</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>641</v>
+        <v>653</v>
       </c>
       <c r="H26" s="7">
         <v>354</v>
@@ -7817,13 +7868,13 @@
         <v>384512</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>643</v>
+        <v>655</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>644</v>
+        <v>656</v>
       </c>
       <c r="M26" s="7">
         <v>671</v>
@@ -7832,13 +7883,13 @@
         <v>725944</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>645</v>
+        <v>657</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>646</v>
+        <v>658</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>647</v>
+        <v>659</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7894,7 +7945,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7906,13 +7957,13 @@
         <v>27182</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>648</v>
+        <v>660</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>477</v>
+        <v>661</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>621</v>
+        <v>662</v>
       </c>
       <c r="H28" s="7">
         <v>21</v>
@@ -7921,13 +7972,13 @@
         <v>22165</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>320</v>
+        <v>663</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>649</v>
+        <v>664</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>199</v>
+        <v>410</v>
       </c>
       <c r="M28" s="7">
         <v>47</v>
@@ -7936,13 +7987,13 @@
         <v>49347</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>620</v>
+        <v>411</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>650</v>
+        <v>202</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>106</v>
+        <v>665</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7957,13 +8008,13 @@
         <v>34072</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>585</v>
+        <v>62</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>150</v>
+        <v>666</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>651</v>
+        <v>600</v>
       </c>
       <c r="H29" s="7">
         <v>25</v>
@@ -7972,13 +8023,13 @@
         <v>26356</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>409</v>
+        <v>667</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>652</v>
+        <v>668</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>653</v>
+        <v>669</v>
       </c>
       <c r="M29" s="7">
         <v>59</v>
@@ -7987,13 +8038,13 @@
         <v>60428</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>196</v>
+        <v>670</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>654</v>
+        <v>671</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8008,13 +8059,13 @@
         <v>106201</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>655</v>
+        <v>672</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>656</v>
+        <v>673</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>657</v>
+        <v>257</v>
       </c>
       <c r="H30" s="7">
         <v>92</v>
@@ -8023,13 +8074,13 @@
         <v>94714</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>658</v>
+        <v>674</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>659</v>
+        <v>675</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>660</v>
+        <v>676</v>
       </c>
       <c r="M30" s="7">
         <v>198</v>
@@ -8038,13 +8089,13 @@
         <v>200915</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>661</v>
+        <v>497</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>662</v>
+        <v>677</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>594</v>
+        <v>678</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8059,13 +8110,13 @@
         <v>265076</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>663</v>
+        <v>679</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>664</v>
+        <v>177</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>665</v>
+        <v>680</v>
       </c>
       <c r="H31" s="7">
         <v>221</v>
@@ -8074,13 +8125,13 @@
         <v>236736</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>666</v>
+        <v>681</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>667</v>
+        <v>682</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
       <c r="M31" s="7">
         <v>490</v>
@@ -8089,13 +8140,13 @@
         <v>501812</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>669</v>
+        <v>684</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>130</v>
+        <v>685</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>670</v>
+        <v>686</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8110,13 +8161,13 @@
         <v>503079</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>671</v>
+        <v>687</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>613</v>
+        <v>688</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>672</v>
+        <v>689</v>
       </c>
       <c r="H32" s="7">
         <v>598</v>
@@ -8125,13 +8176,13 @@
         <v>661700</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>673</v>
+        <v>690</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>674</v>
+        <v>691</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>675</v>
+        <v>692</v>
       </c>
       <c r="M32" s="7">
         <v>1093</v>
@@ -8140,13 +8191,13 @@
         <v>1164779</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>676</v>
+        <v>693</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>677</v>
+        <v>694</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>678</v>
+        <v>695</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8214,13 +8265,13 @@
         <v>86511</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>69</v>
+        <v>696</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>356</v>
+        <v>697</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>318</v>
+        <v>106</v>
       </c>
       <c r="H34" s="7">
         <v>70</v>
@@ -8229,13 +8280,13 @@
         <v>71497</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>679</v>
+        <v>698</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>680</v>
+        <v>157</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>439</v>
+        <v>489</v>
       </c>
       <c r="M34" s="7">
         <v>150</v>
@@ -8244,13 +8295,13 @@
         <v>158009</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>681</v>
+        <v>661</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>682</v>
+        <v>480</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8265,13 +8316,13 @@
         <v>129441</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>683</v>
+        <v>699</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>684</v>
+        <v>700</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>685</v>
+        <v>701</v>
       </c>
       <c r="H35" s="7">
         <v>111</v>
@@ -8280,13 +8331,13 @@
         <v>115076</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>358</v>
+        <v>702</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>150</v>
+        <v>367</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>207</v>
+        <v>703</v>
       </c>
       <c r="M35" s="7">
         <v>232</v>
@@ -8295,13 +8346,13 @@
         <v>244517</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>653</v>
+        <v>704</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>686</v>
+        <v>200</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>687</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8316,13 +8367,13 @@
         <v>460293</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>688</v>
+        <v>705</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>689</v>
+        <v>706</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>690</v>
+        <v>707</v>
       </c>
       <c r="H36" s="7">
         <v>386</v>
@@ -8331,13 +8382,13 @@
         <v>401349</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>691</v>
+        <v>708</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>692</v>
+        <v>709</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>693</v>
+        <v>710</v>
       </c>
       <c r="M36" s="7">
         <v>812</v>
@@ -8346,13 +8397,13 @@
         <v>861642</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>694</v>
+        <v>711</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>695</v>
+        <v>712</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>215</v>
+        <v>713</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8367,13 +8418,13 @@
         <v>1006760</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>696</v>
+        <v>184</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>697</v>
+        <v>714</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>698</v>
+        <v>715</v>
       </c>
       <c r="H37" s="7">
         <v>936</v>
@@ -8382,13 +8433,13 @@
         <v>976093</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>699</v>
+        <v>716</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>700</v>
+        <v>717</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>701</v>
+        <v>718</v>
       </c>
       <c r="M37" s="7">
         <v>1906</v>
@@ -8397,13 +8448,13 @@
         <v>1982852</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>702</v>
+        <v>719</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>703</v>
+        <v>716</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>570</v>
+        <v>720</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8418,13 +8469,13 @@
         <v>1704546</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>704</v>
+        <v>721</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>705</v>
+        <v>722</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>706</v>
+        <v>723</v>
       </c>
       <c r="H38" s="7">
         <v>1830</v>
@@ -8433,13 +8484,13 @@
         <v>1974697</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>707</v>
+        <v>724</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>708</v>
+        <v>725</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>709</v>
+        <v>726</v>
       </c>
       <c r="M38" s="7">
         <v>3458</v>
@@ -8448,13 +8499,13 @@
         <v>3679244</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>710</v>
+        <v>727</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>711</v>
+        <v>728</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>712</v>
+        <v>729</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8510,7 +8561,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B06-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B06-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82230456-2C34-4108-AF6E-C7278ED5E452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DD9B8DB-620D-4949-98ED-E2108887ADE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EC4B6217-12CA-4B41-BE5D-2862F0F709FC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1008BFC3-F39E-45FA-9F3C-707B6ED4F6CA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="711">
   <si>
     <t>Población según la frecuencia de consumo de fruta fresca en 2007 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -79,13 +79,13 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>5,84%</t>
+    <t>6,4%</t>
   </si>
   <si>
     <t>1,41%</t>
   </si>
   <si>
-    <t>4,35%</t>
+    <t>4,99%</t>
   </si>
   <si>
     <t>1,64%</t>
@@ -94,7 +94,7 @@
     <t>0,46%</t>
   </si>
   <si>
-    <t>3,73%</t>
+    <t>4,03%</t>
   </si>
   <si>
     <t>Menos de 1 vez semana</t>
@@ -103,7 +103,7 @@
     <t>1,72%</t>
   </si>
   <si>
-    <t>5,92%</t>
+    <t>6,85%</t>
   </si>
   <si>
     <t>3,03%</t>
@@ -112,16 +112,16 @@
     <t>0,78%</t>
   </si>
   <si>
-    <t>7,52%</t>
+    <t>7,84%</t>
   </si>
   <si>
     <t>2,37%</t>
   </si>
   <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
   </si>
   <si>
     <t>Una/dos veces a la semana</t>
@@ -130,19 +130,19 @@
     <t>7,06%</t>
   </si>
   <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
   </si>
   <si>
     <t>10,06%</t>
   </si>
   <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
   </si>
   <si>
     <t>8,54%</t>
@@ -151,7 +151,7 @@
     <t>5,65%</t>
   </si>
   <si>
-    <t>12,28%</t>
+    <t>12,93%</t>
   </si>
   <si>
     <t>Tres o más veces a la semana</t>
@@ -160,28 +160,28 @@
     <t>32,41%</t>
   </si>
   <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
   </si>
   <si>
     <t>23,78%</t>
   </si>
   <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
   </si>
   <si>
     <t>28,15%</t>
   </si>
   <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
   </si>
   <si>
     <t>A diario</t>
@@ -190,28 +190,28 @@
     <t>56,93%</t>
   </si>
   <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
   </si>
   <si>
     <t>61,73%</t>
   </si>
   <si>
-    <t>53,97%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
   </si>
   <si>
     <t>59,3%</t>
   </si>
   <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
   </si>
   <si>
     <t>100%</t>
@@ -223,2011 +223,1954 @@
     <t>2,12%</t>
   </si>
   <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>53,03%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>54,87%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de fruta fresca en 2012 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>70,05%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>65,45%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
     <t>1,15%</t>
   </si>
   <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>56,3%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de fruta fresca en 2016 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>62,53%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>58,48%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
     <t>3,64%</t>
   </si>
   <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
   </si>
   <si>
     <t>2,95%</t>
   </si>
   <si>
-    <t>1,96%</t>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>53,22%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
   </si>
   <si>
     <t>1,39%</t>
   </si>
   <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
   </si>
   <si>
     <t>5,08%</t>
   </si>
   <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>51,14%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
   </si>
   <si>
     <t>29,72%</t>
   </si>
   <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>49,43%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de fruta fresca en 2012 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de fruta fresca en 2016 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>66,4%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>52,42%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
   </si>
   <si>
     <t>27,58%</t>
   </si>
   <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
   </si>
   <si>
     <t>28,63%</t>
   </si>
   <si>
-    <t>29,77%</t>
+    <t>27,57%</t>
   </si>
   <si>
     <t>50,32%</t>
   </si>
   <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
   </si>
   <si>
     <t>55,8%</t>
   </si>
   <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>57,59%</t>
   </si>
   <si>
     <t>53,12%</t>
   </si>
   <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
   </si>
 </sst>
 </file>
@@ -2639,7 +2582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2618B042-ED65-4402-9E6A-9B9318F64422}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45B74267-4EE4-4926-966D-C60BB98BE513}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3092,7 +3035,7 @@
         <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
@@ -3104,10 +3047,10 @@
         <v>14</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3122,13 +3065,13 @@
         <v>22794</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="H11" s="7">
         <v>19</v>
@@ -3397,10 +3340,10 @@
         <v>107</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M16" s="7">
         <v>34</v>
@@ -3409,13 +3352,13 @@
         <v>37795</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3430,13 +3373,13 @@
         <v>61954</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H17" s="7">
         <v>36</v>
@@ -3445,13 +3388,13 @@
         <v>39221</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M17" s="7">
         <v>91</v>
@@ -3460,13 +3403,13 @@
         <v>101176</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3481,13 +3424,13 @@
         <v>172929</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H18" s="7">
         <v>143</v>
@@ -3496,13 +3439,13 @@
         <v>150674</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M18" s="7">
         <v>302</v>
@@ -3511,13 +3454,13 @@
         <v>323603</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3532,13 +3475,13 @@
         <v>250702</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H19" s="7">
         <v>218</v>
@@ -3547,13 +3490,13 @@
         <v>228716</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M19" s="7">
         <v>450</v>
@@ -3562,13 +3505,13 @@
         <v>479418</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3583,13 +3526,13 @@
         <v>455301</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H20" s="7">
         <v>493</v>
@@ -3598,13 +3541,13 @@
         <v>530798</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="M20" s="7">
         <v>925</v>
@@ -3613,13 +3556,13 @@
         <v>986100</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3675,7 +3618,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3687,13 +3630,13 @@
         <v>13037</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H22" s="7">
         <v>18</v>
@@ -3702,13 +3645,13 @@
         <v>18040</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M22" s="7">
         <v>29</v>
@@ -3717,13 +3660,13 @@
         <v>31077</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3738,13 +3681,13 @@
         <v>36859</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H23" s="7">
         <v>23</v>
@@ -3753,13 +3696,13 @@
         <v>22282</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="M23" s="7">
         <v>59</v>
@@ -3768,13 +3711,13 @@
         <v>59141</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3789,13 +3732,13 @@
         <v>101604</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H24" s="7">
         <v>80</v>
@@ -3804,13 +3747,13 @@
         <v>77654</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M24" s="7">
         <v>178</v>
@@ -3819,13 +3762,13 @@
         <v>179258</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3840,13 +3783,13 @@
         <v>198843</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H25" s="7">
         <v>175</v>
@@ -3855,13 +3798,13 @@
         <v>173271</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="M25" s="7">
         <v>360</v>
@@ -3870,13 +3813,13 @@
         <v>372113</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3891,13 +3834,13 @@
         <v>328167</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H26" s="7">
         <v>400</v>
@@ -3906,13 +3849,13 @@
         <v>392594</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="M26" s="7">
         <v>711</v>
@@ -3921,13 +3864,13 @@
         <v>720761</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3983,7 +3926,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3995,13 +3938,13 @@
         <v>26801</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H28" s="7">
         <v>21</v>
@@ -4010,13 +3953,13 @@
         <v>21426</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>198</v>
+        <v>71</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="M28" s="7">
         <v>50</v>
@@ -4025,13 +3968,13 @@
         <v>48226</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4046,13 +3989,13 @@
         <v>63446</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H29" s="7">
         <v>28</v>
@@ -4061,13 +4004,13 @@
         <v>29289</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>71</v>
+        <v>204</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>116</v>
+        <v>205</v>
       </c>
       <c r="M29" s="7">
         <v>97</v>
@@ -4076,13 +4019,13 @@
         <v>92735</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4097,13 +4040,13 @@
         <v>148747</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H30" s="7">
         <v>144</v>
@@ -4112,13 +4055,13 @@
         <v>147367</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M30" s="7">
         <v>301</v>
@@ -4127,13 +4070,13 @@
         <v>296114</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4148,13 +4091,13 @@
         <v>283268</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H31" s="7">
         <v>282</v>
@@ -4163,13 +4106,13 @@
         <v>294380</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M31" s="7">
         <v>573</v>
@@ -4178,13 +4121,13 @@
         <v>577649</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4199,13 +4142,13 @@
         <v>419078</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="H32" s="7">
         <v>521</v>
@@ -4214,13 +4157,13 @@
         <v>545174</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="K32" s="7" t="s">
-        <v>231</v>
-      </c>
       <c r="L32" s="7" t="s">
-        <v>232</v>
+        <v>190</v>
       </c>
       <c r="M32" s="7">
         <v>968</v>
@@ -4229,13 +4172,13 @@
         <v>964252</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4303,13 +4246,13 @@
         <v>74106</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="H34" s="7">
         <v>62</v>
@@ -4318,10 +4261,10 @@
         <v>63049</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>25</v>
@@ -4333,13 +4276,13 @@
         <v>137155</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>198</v>
+        <v>71</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>241</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4354,13 +4297,13 @@
         <v>187038</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="H35" s="7">
         <v>110</v>
@@ -4369,13 +4312,13 @@
         <v>113213</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>247</v>
+        <v>194</v>
       </c>
       <c r="M35" s="7">
         <v>294</v>
@@ -4384,13 +4327,13 @@
         <v>300251</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>249</v>
+        <v>115</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4405,13 +4348,13 @@
         <v>516574</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H36" s="7">
         <v>440</v>
@@ -4420,13 +4363,13 @@
         <v>444465</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="M36" s="7">
         <v>949</v>
@@ -4435,13 +4378,13 @@
         <v>961039</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4456,13 +4399,13 @@
         <v>944294</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H37" s="7">
         <v>852</v>
@@ -4471,13 +4414,13 @@
         <v>870825</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M37" s="7">
         <v>1767</v>
@@ -4486,13 +4429,13 @@
         <v>1815119</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>225</v>
+        <v>261</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>266</v>
+        <v>220</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4507,13 +4450,13 @@
         <v>1551659</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H38" s="7">
         <v>1831</v>
@@ -4522,13 +4465,13 @@
         <v>1885611</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="M38" s="7">
         <v>3363</v>
@@ -4537,13 +4480,13 @@
         <v>3437270</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>101</v>
+        <v>269</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>273</v>
+        <v>139</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4599,7 +4542,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -4620,7 +4563,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBF8E560-448C-406C-BA39-325D1E39C9DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A7ED14-7DF8-4D18-996D-BDB5BDECBB67}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4637,7 +4580,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4744,13 +4687,13 @@
         <v>4022</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>278</v>
+        <v>105</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4762,10 +4705,10 @@
         <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -4774,13 +4717,13 @@
         <v>4022</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>237</v>
+        <v>276</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4795,13 +4738,13 @@
         <v>6387</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>74</v>
+        <v>150</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -4810,13 +4753,13 @@
         <v>4893</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>151</v>
+        <v>282</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -4825,13 +4768,13 @@
         <v>11280</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>289</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4846,13 +4789,13 @@
         <v>7471</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>291</v>
+        <v>210</v>
       </c>
       <c r="H6" s="7">
         <v>8</v>
@@ -4861,13 +4804,13 @@
         <v>8175</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="M6" s="7">
         <v>16</v>
@@ -4876,13 +4819,13 @@
         <v>15646</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4897,13 +4840,13 @@
         <v>25927</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -4912,13 +4855,13 @@
         <v>7753</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="M7" s="7">
         <v>35</v>
@@ -4927,13 +4870,13 @@
         <v>33680</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4948,13 +4891,13 @@
         <v>71958</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="H8" s="7">
         <v>80</v>
@@ -4963,13 +4906,13 @@
         <v>91085</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="M8" s="7">
         <v>154</v>
@@ -4978,13 +4921,13 @@
         <v>163043</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5052,13 +4995,13 @@
         <v>6122</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>317</v>
+        <v>277</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -5067,13 +5010,13 @@
         <v>9221</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -5082,13 +5025,13 @@
         <v>15343</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>322</v>
+        <v>195</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>320</v>
+        <v>63</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5103,13 +5046,13 @@
         <v>14558</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>325</v>
+        <v>105</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
@@ -5118,13 +5061,13 @@
         <v>8834</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>329</v>
+        <v>236</v>
       </c>
       <c r="M11" s="7">
         <v>21</v>
@@ -5133,13 +5076,13 @@
         <v>23393</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>61</v>
+        <v>195</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5154,13 +5097,13 @@
         <v>56175</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>77</v>
+        <v>325</v>
       </c>
       <c r="H12" s="7">
         <v>37</v>
@@ -5169,13 +5112,13 @@
         <v>39358</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="M12" s="7">
         <v>91</v>
@@ -5184,13 +5127,13 @@
         <v>95534</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5205,13 +5148,13 @@
         <v>134115</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="H13" s="7">
         <v>119</v>
@@ -5220,13 +5163,13 @@
         <v>126950</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="M13" s="7">
         <v>244</v>
@@ -5235,13 +5178,13 @@
         <v>261064</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5256,13 +5199,13 @@
         <v>376734</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="H14" s="7">
         <v>378</v>
@@ -5271,13 +5214,13 @@
         <v>400782</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="M14" s="7">
         <v>733</v>
@@ -5286,13 +5229,13 @@
         <v>777516</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5360,13 +5303,13 @@
         <v>21294</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>203</v>
+        <v>352</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -5375,13 +5318,13 @@
         <v>15397</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="M16" s="7">
         <v>33</v>
@@ -5390,13 +5333,13 @@
         <v>36691</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>365</v>
+        <v>317</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5411,13 +5354,13 @@
         <v>38459</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="H17" s="7">
         <v>29</v>
@@ -5426,13 +5369,13 @@
         <v>32975</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>371</v>
+        <v>245</v>
       </c>
       <c r="M17" s="7">
         <v>64</v>
@@ -5441,13 +5384,13 @@
         <v>71434</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>288</v>
+        <v>364</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5462,13 +5405,13 @@
         <v>119881</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="H18" s="7">
         <v>72</v>
@@ -5477,13 +5420,13 @@
         <v>77997</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="M18" s="7">
         <v>183</v>
@@ -5492,13 +5435,13 @@
         <v>197878</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5513,13 +5456,13 @@
         <v>246055</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>384</v>
+        <v>335</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="H19" s="7">
         <v>178</v>
@@ -5528,13 +5471,13 @@
         <v>201716</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="M19" s="7">
         <v>405</v>
@@ -5543,13 +5486,13 @@
         <v>447771</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5564,13 +5507,13 @@
         <v>589305</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="H20" s="7">
         <v>647</v>
@@ -5579,13 +5522,13 @@
         <v>703012</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="M20" s="7">
         <v>1187</v>
@@ -5594,13 +5537,13 @@
         <v>1292317</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>399</v>
+        <v>187</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5656,7 +5599,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5668,13 +5611,13 @@
         <v>23811</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>321</v>
+        <v>391</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>401</v>
+        <v>350</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -5686,10 +5629,10 @@
         <v>60</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>404</v>
+        <v>288</v>
       </c>
       <c r="M22" s="7">
         <v>38</v>
@@ -5698,13 +5641,13 @@
         <v>40270</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>74</v>
+        <v>394</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>293</v>
+        <v>396</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5719,13 +5662,13 @@
         <v>22222</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>406</v>
+        <v>297</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>110</v>
+        <v>397</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="H23" s="7">
         <v>25</v>
@@ -5734,13 +5677,13 @@
         <v>29262</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="M23" s="7">
         <v>47</v>
@@ -5749,13 +5692,13 @@
         <v>51484</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>410</v>
+        <v>149</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>248</v>
+        <v>402</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5770,13 +5713,13 @@
         <v>76678</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="H24" s="7">
         <v>56</v>
@@ -5785,13 +5728,13 @@
         <v>58410</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>415</v>
+        <v>158</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="M24" s="7">
         <v>126</v>
@@ -5800,13 +5743,13 @@
         <v>135088</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5821,13 +5764,13 @@
         <v>207415</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="H25" s="7">
         <v>168</v>
@@ -5836,13 +5779,13 @@
         <v>187463</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>426</v>
+        <v>261</v>
       </c>
       <c r="M25" s="7">
         <v>353</v>
@@ -5851,13 +5794,13 @@
         <v>394879</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5872,13 +5815,13 @@
         <v>425388</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="H26" s="7">
         <v>440</v>
@@ -5887,13 +5830,13 @@
         <v>483421</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="M26" s="7">
         <v>826</v>
@@ -5902,13 +5845,13 @@
         <v>908809</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5964,7 +5907,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5976,13 +5919,13 @@
         <v>19495</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>198</v>
+        <v>71</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>70</v>
+        <v>429</v>
       </c>
       <c r="H28" s="7">
         <v>26</v>
@@ -5991,13 +5934,13 @@
         <v>26355</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="M28" s="7">
         <v>45</v>
@@ -6006,13 +5949,13 @@
         <v>45849</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>331</v>
+        <v>435</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6027,13 +5970,13 @@
         <v>27129</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>405</v>
+        <v>147</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>446</v>
+        <v>115</v>
       </c>
       <c r="H29" s="7">
         <v>19</v>
@@ -6042,13 +5985,13 @@
         <v>19500</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>447</v>
+        <v>198</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="M29" s="7">
         <v>46</v>
@@ -6057,13 +6000,13 @@
         <v>46629</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>451</v>
+        <v>276</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>452</v>
+        <v>315</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6078,13 +6021,13 @@
         <v>123732</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="H30" s="7">
         <v>82</v>
@@ -6093,13 +6036,13 @@
         <v>88277</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="M30" s="7">
         <v>207</v>
@@ -6108,13 +6051,13 @@
         <v>212009</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6129,13 +6072,13 @@
         <v>197829</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="H31" s="7">
         <v>174</v>
@@ -6144,13 +6087,13 @@
         <v>180177</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="M31" s="7">
         <v>368</v>
@@ -6159,13 +6102,13 @@
         <v>378006</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>468</v>
+        <v>43</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6180,13 +6123,13 @@
         <v>579554</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="H32" s="7">
         <v>699</v>
@@ -6195,13 +6138,13 @@
         <v>733502</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="M32" s="7">
         <v>1244</v>
@@ -6210,13 +6153,13 @@
         <v>1313056</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6284,13 +6227,13 @@
         <v>74743</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>20</v>
+        <v>282</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="H34" s="7">
         <v>61</v>
@@ -6299,13 +6242,13 @@
         <v>67432</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>481</v>
+        <v>14</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
       <c r="M34" s="7">
         <v>134</v>
@@ -6314,13 +6257,13 @@
         <v>142175</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>401</v>
+        <v>468</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>483</v>
+        <v>239</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6335,13 +6278,13 @@
         <v>108755</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>106</v>
+        <v>469</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="H35" s="7">
         <v>86</v>
@@ -6350,13 +6293,13 @@
         <v>95464</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>486</v>
+        <v>364</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>488</v>
+        <v>70</v>
       </c>
       <c r="M35" s="7">
         <v>190</v>
@@ -6365,13 +6308,13 @@
         <v>204219</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>302</v>
+        <v>473</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>410</v>
+        <v>475</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6386,13 +6329,13 @@
         <v>383938</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>286</v>
+        <v>477</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="H36" s="7">
         <v>255</v>
@@ -6401,13 +6344,13 @@
         <v>272217</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="M36" s="7">
         <v>623</v>
@@ -6416,13 +6359,13 @@
         <v>656155</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>497</v>
+        <v>403</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6437,13 +6380,13 @@
         <v>811341</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="H37" s="7">
         <v>646</v>
@@ -6452,13 +6395,13 @@
         <v>704059</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="M37" s="7">
         <v>1405</v>
@@ -6467,13 +6410,13 @@
         <v>1515400</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>340</v>
+        <v>492</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6485,16 +6428,16 @@
         <v>1900</v>
       </c>
       <c r="D38" s="7">
-        <v>2042939</v>
+        <v>2042940</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>507</v>
+        <v>457</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="H38" s="7">
         <v>2244</v>
@@ -6503,13 +6446,13 @@
         <v>2411801</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>510</v>
+        <v>51</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="M38" s="7">
         <v>4144</v>
@@ -6518,13 +6461,13 @@
         <v>4454740</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>314</v>
+        <v>499</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6536,7 +6479,7 @@
         <v>3204</v>
       </c>
       <c r="D39" s="7">
-        <v>3421716</v>
+        <v>3421717</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>58</v>
@@ -6580,7 +6523,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -6601,7 +6544,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CE19F0B-7990-4D6C-A02B-DA17D30AB5E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3D6A236-58F1-472D-9846-29CACD2AA9A6}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6618,7 +6561,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6725,13 +6668,13 @@
         <v>6029</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>515</v>
+        <v>27</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>516</v>
+        <v>356</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -6740,13 +6683,13 @@
         <v>4358</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>485</v>
+        <v>207</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>518</v>
+        <v>195</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>519</v>
+        <v>502</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -6755,13 +6698,13 @@
         <v>10387</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>520</v>
+        <v>365</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>521</v>
+        <v>503</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>522</v>
+        <v>504</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6776,13 +6719,13 @@
         <v>1928</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>523</v>
+        <v>505</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>524</v>
+        <v>506</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -6791,13 +6734,13 @@
         <v>7043</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>525</v>
+        <v>507</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>526</v>
+        <v>508</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>81</v>
+        <v>509</v>
       </c>
       <c r="M5" s="7">
         <v>9</v>
@@ -6806,13 +6749,13 @@
         <v>8971</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>527</v>
+        <v>510</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>528</v>
+        <v>511</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6827,13 +6770,13 @@
         <v>14692</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>529</v>
+        <v>512</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>530</v>
+        <v>513</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>531</v>
+        <v>514</v>
       </c>
       <c r="H6" s="7">
         <v>19</v>
@@ -6842,13 +6785,13 @@
         <v>19380</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>532</v>
+        <v>515</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>533</v>
+        <v>516</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>534</v>
+        <v>517</v>
       </c>
       <c r="M6" s="7">
         <v>33</v>
@@ -6857,13 +6800,13 @@
         <v>34072</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>535</v>
+        <v>518</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>536</v>
+        <v>519</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>537</v>
+        <v>520</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6878,13 +6821,13 @@
         <v>31806</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>225</v>
+        <v>261</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>538</v>
+        <v>521</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>539</v>
+        <v>522</v>
       </c>
       <c r="H7" s="7">
         <v>19</v>
@@ -6893,13 +6836,13 @@
         <v>17383</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>540</v>
+        <v>523</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>541</v>
+        <v>524</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>542</v>
+        <v>525</v>
       </c>
       <c r="M7" s="7">
         <v>51</v>
@@ -6908,13 +6851,13 @@
         <v>49189</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>543</v>
+        <v>526</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>544</v>
+        <v>527</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>545</v>
+        <v>528</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6929,13 +6872,13 @@
         <v>62091</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>308</v>
+        <v>529</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>547</v>
+        <v>531</v>
       </c>
       <c r="H8" s="7">
         <v>66</v>
@@ -6944,13 +6887,13 @@
         <v>65195</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>548</v>
+        <v>532</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>549</v>
+        <v>533</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>550</v>
+        <v>534</v>
       </c>
       <c r="M8" s="7">
         <v>125</v>
@@ -6959,13 +6902,13 @@
         <v>127287</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>552</v>
+        <v>536</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>553</v>
+        <v>537</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7033,13 +6976,13 @@
         <v>16953</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>452</v>
+        <v>538</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>554</v>
+        <v>539</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -7048,13 +6991,13 @@
         <v>9766</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>452</v>
+        <v>543</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -7063,13 +7006,13 @@
         <v>26719</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7084,13 +7027,13 @@
         <v>23235</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
       <c r="H11" s="7">
         <v>22</v>
@@ -7099,13 +7042,13 @@
         <v>21797</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>527</v>
+        <v>510</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>482</v>
+        <v>550</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="M11" s="7">
         <v>43</v>
@@ -7114,13 +7057,13 @@
         <v>45033</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>565</v>
+        <v>18</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>22</v>
+        <v>552</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7135,13 +7078,13 @@
         <v>66681</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="H12" s="7">
         <v>59</v>
@@ -7150,13 +7093,13 @@
         <v>59064</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="M12" s="7">
         <v>120</v>
@@ -7165,13 +7108,13 @@
         <v>125745</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7186,13 +7129,13 @@
         <v>159720</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
       <c r="H13" s="7">
         <v>142</v>
@@ -7201,13 +7144,13 @@
         <v>141279</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="M13" s="7">
         <v>300</v>
@@ -7216,13 +7159,13 @@
         <v>300999</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>583</v>
+        <v>412</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>584</v>
+        <v>570</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7237,13 +7180,13 @@
         <v>290615</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>586</v>
+        <v>572</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>587</v>
+        <v>573</v>
       </c>
       <c r="H14" s="7">
         <v>318</v>
@@ -7252,13 +7195,13 @@
         <v>327573</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>513</v>
+        <v>576</v>
       </c>
       <c r="M14" s="7">
         <v>602</v>
@@ -7267,13 +7210,13 @@
         <v>618188</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7341,13 +7284,13 @@
         <v>21771</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>592</v>
+        <v>362</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>322</v>
+        <v>579</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -7356,13 +7299,13 @@
         <v>22477</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>521</v>
+        <v>472</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>594</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="M16" s="7">
         <v>43</v>
@@ -7371,13 +7314,13 @@
         <v>44248</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>487</v>
+        <v>582</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>596</v>
+        <v>545</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>597</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7392,13 +7335,13 @@
         <v>38438</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>598</v>
+        <v>583</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>599</v>
+        <v>285</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>205</v>
+        <v>584</v>
       </c>
       <c r="H17" s="7">
         <v>36</v>
@@ -7407,13 +7350,13 @@
         <v>37833</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>62</v>
+        <v>585</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>153</v>
+        <v>355</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="M17" s="7">
         <v>72</v>
@@ -7422,13 +7365,13 @@
         <v>76271</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>603</v>
+        <v>589</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7443,13 +7386,13 @@
         <v>150611</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>604</v>
+        <v>590</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>291</v>
+        <v>591</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>605</v>
+        <v>515</v>
       </c>
       <c r="H18" s="7">
         <v>133</v>
@@ -7458,13 +7401,13 @@
         <v>140145</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>606</v>
+        <v>592</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>607</v>
+        <v>593</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>608</v>
+        <v>594</v>
       </c>
       <c r="M18" s="7">
         <v>272</v>
@@ -7473,13 +7416,13 @@
         <v>290757</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>611</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7494,13 +7437,13 @@
         <v>301476</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>612</v>
+        <v>597</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>613</v>
+        <v>598</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>614</v>
+        <v>599</v>
       </c>
       <c r="H19" s="7">
         <v>289</v>
@@ -7509,13 +7452,13 @@
         <v>303017</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>615</v>
+        <v>600</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>265</v>
+        <v>601</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>616</v>
+        <v>602</v>
       </c>
       <c r="M19" s="7">
         <v>569</v>
@@ -7524,13 +7467,13 @@
         <v>604494</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>617</v>
+        <v>603</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>618</v>
+        <v>604</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>619</v>
+        <v>605</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7545,13 +7488,13 @@
         <v>507328</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>620</v>
+        <v>606</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>621</v>
+        <v>232</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>622</v>
+        <v>607</v>
       </c>
       <c r="H20" s="7">
         <v>494</v>
@@ -7560,13 +7503,13 @@
         <v>535718</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>623</v>
+        <v>608</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>624</v>
+        <v>609</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>625</v>
+        <v>610</v>
       </c>
       <c r="M20" s="7">
         <v>967</v>
@@ -7575,13 +7518,13 @@
         <v>1043047</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>626</v>
+        <v>611</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>185</v>
+        <v>612</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>627</v>
+        <v>613</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7637,7 +7580,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7649,13 +7592,13 @@
         <v>14576</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>106</v>
+        <v>581</v>
       </c>
       <c r="H22" s="7">
         <v>13</v>
@@ -7664,13 +7607,13 @@
         <v>12731</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>628</v>
+        <v>614</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>629</v>
+        <v>615</v>
       </c>
       <c r="M22" s="7">
         <v>26</v>
@@ -7679,13 +7622,13 @@
         <v>27307</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>237</v>
+        <v>276</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>403</v>
+        <v>616</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>630</v>
+        <v>617</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7700,13 +7643,13 @@
         <v>31768</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>120</v>
+        <v>618</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="H23" s="7">
         <v>21</v>
@@ -7715,13 +7658,13 @@
         <v>22046</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>633</v>
+        <v>116</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>635</v>
+        <v>318</v>
       </c>
       <c r="M23" s="7">
         <v>49</v>
@@ -7730,13 +7673,13 @@
         <v>53814</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>153</v>
+        <v>470</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>636</v>
+        <v>622</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7751,13 +7694,13 @@
         <v>122108</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>637</v>
+        <v>623</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>575</v>
+        <v>624</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
       <c r="H24" s="7">
         <v>83</v>
@@ -7766,13 +7709,13 @@
         <v>88046</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>289</v>
+        <v>168</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>606</v>
+        <v>626</v>
       </c>
       <c r="M24" s="7">
         <v>189</v>
@@ -7781,13 +7724,13 @@
         <v>210153</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7802,13 +7745,13 @@
         <v>248681</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="H25" s="7">
         <v>265</v>
@@ -7817,13 +7760,13 @@
         <v>277677</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="M25" s="7">
         <v>496</v>
@@ -7832,13 +7775,13 @@
         <v>526358</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>648</v>
+        <v>47</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>649</v>
+        <v>636</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7853,13 +7796,13 @@
         <v>341433</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="H26" s="7">
         <v>354</v>
@@ -7868,13 +7811,13 @@
         <v>384512</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>654</v>
+        <v>641</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>655</v>
+        <v>642</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>656</v>
+        <v>643</v>
       </c>
       <c r="M26" s="7">
         <v>671</v>
@@ -7883,13 +7826,13 @@
         <v>725944</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7945,7 +7888,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7957,13 +7900,13 @@
         <v>27182</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>661</v>
+        <v>648</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>662</v>
+        <v>649</v>
       </c>
       <c r="H28" s="7">
         <v>21</v>
@@ -7972,13 +7915,13 @@
         <v>22165</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>663</v>
+        <v>650</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>664</v>
+        <v>651</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>410</v>
+        <v>361</v>
       </c>
       <c r="M28" s="7">
         <v>47</v>
@@ -7987,13 +7930,13 @@
         <v>49347</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>411</v>
+        <v>617</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>202</v>
+        <v>652</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>665</v>
+        <v>653</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8008,13 +7951,13 @@
         <v>34072</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>62</v>
+        <v>585</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>666</v>
+        <v>399</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>600</v>
+        <v>654</v>
       </c>
       <c r="H29" s="7">
         <v>25</v>
@@ -8023,13 +7966,13 @@
         <v>26356</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>667</v>
+        <v>355</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>668</v>
+        <v>154</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>669</v>
+        <v>288</v>
       </c>
       <c r="M29" s="7">
         <v>59</v>
@@ -8038,13 +7981,13 @@
         <v>60428</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>670</v>
+        <v>196</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>66</v>
+        <v>655</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>671</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8059,13 +8002,13 @@
         <v>106201</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>672</v>
+        <v>656</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>673</v>
+        <v>657</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>257</v>
+        <v>658</v>
       </c>
       <c r="H30" s="7">
         <v>92</v>
@@ -8074,13 +8017,13 @@
         <v>94714</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>674</v>
+        <v>659</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>675</v>
+        <v>660</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>676</v>
+        <v>661</v>
       </c>
       <c r="M30" s="7">
         <v>198</v>
@@ -8089,13 +8032,13 @@
         <v>200915</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>497</v>
+        <v>477</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>677</v>
+        <v>662</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>678</v>
+        <v>663</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8110,13 +8053,13 @@
         <v>265076</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>679</v>
+        <v>664</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>177</v>
+        <v>665</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>680</v>
+        <v>666</v>
       </c>
       <c r="H31" s="7">
         <v>221</v>
@@ -8125,13 +8068,13 @@
         <v>236736</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>681</v>
+        <v>667</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>682</v>
+        <v>668</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>683</v>
+        <v>669</v>
       </c>
       <c r="M31" s="7">
         <v>490</v>
@@ -8140,13 +8083,13 @@
         <v>501812</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>684</v>
+        <v>670</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>685</v>
+        <v>671</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>686</v>
+        <v>672</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8161,13 +8104,13 @@
         <v>503079</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>687</v>
+        <v>673</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>688</v>
+        <v>611</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>689</v>
+        <v>185</v>
       </c>
       <c r="H32" s="7">
         <v>598</v>
@@ -8176,13 +8119,13 @@
         <v>661700</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>690</v>
+        <v>674</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>691</v>
+        <v>675</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>692</v>
+        <v>676</v>
       </c>
       <c r="M32" s="7">
         <v>1093</v>
@@ -8191,13 +8134,13 @@
         <v>1164779</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>693</v>
+        <v>677</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>694</v>
+        <v>678</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>695</v>
+        <v>679</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8265,13 +8208,13 @@
         <v>86511</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>696</v>
+        <v>69</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>697</v>
+        <v>193</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>106</v>
+        <v>469</v>
       </c>
       <c r="H34" s="7">
         <v>70</v>
@@ -8280,13 +8223,13 @@
         <v>71497</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>698</v>
+        <v>680</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>157</v>
+        <v>313</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>489</v>
+        <v>430</v>
       </c>
       <c r="M34" s="7">
         <v>150</v>
@@ -8295,13 +8238,13 @@
         <v>158009</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>661</v>
+        <v>681</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>480</v>
+        <v>548</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8316,13 +8259,13 @@
         <v>129441</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>699</v>
+        <v>682</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>700</v>
+        <v>469</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>701</v>
+        <v>365</v>
       </c>
       <c r="H35" s="7">
         <v>111</v>
@@ -8331,13 +8274,13 @@
         <v>115076</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>702</v>
+        <v>683</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>367</v>
+        <v>285</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>703</v>
+        <v>684</v>
       </c>
       <c r="M35" s="7">
         <v>232</v>
@@ -8346,13 +8289,13 @@
         <v>244517</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>704</v>
+        <v>685</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>200</v>
+        <v>315</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>249</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8367,13 +8310,13 @@
         <v>460293</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>705</v>
+        <v>686</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>706</v>
+        <v>687</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>707</v>
+        <v>688</v>
       </c>
       <c r="H36" s="7">
         <v>386</v>
@@ -8382,13 +8325,13 @@
         <v>401349</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>708</v>
+        <v>689</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>709</v>
+        <v>690</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>710</v>
+        <v>31</v>
       </c>
       <c r="M36" s="7">
         <v>812</v>
@@ -8397,13 +8340,13 @@
         <v>861642</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>711</v>
+        <v>691</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>712</v>
+        <v>692</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>713</v>
+        <v>693</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8418,13 +8361,13 @@
         <v>1006760</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>184</v>
+        <v>694</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>714</v>
+        <v>695</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>715</v>
+        <v>696</v>
       </c>
       <c r="H37" s="7">
         <v>936</v>
@@ -8433,13 +8376,13 @@
         <v>976093</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>716</v>
+        <v>697</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>717</v>
+        <v>698</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>718</v>
+        <v>699</v>
       </c>
       <c r="M37" s="7">
         <v>1906</v>
@@ -8448,13 +8391,13 @@
         <v>1982852</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>719</v>
+        <v>700</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>716</v>
+        <v>701</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>720</v>
+        <v>694</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8469,13 +8412,13 @@
         <v>1704546</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>721</v>
+        <v>702</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>722</v>
+        <v>703</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>723</v>
+        <v>704</v>
       </c>
       <c r="H38" s="7">
         <v>1830</v>
@@ -8484,13 +8427,13 @@
         <v>1974697</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>724</v>
+        <v>705</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>725</v>
+        <v>706</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>726</v>
+        <v>707</v>
       </c>
       <c r="M38" s="7">
         <v>3458</v>
@@ -8499,13 +8442,13 @@
         <v>3679244</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>727</v>
+        <v>708</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>729</v>
+        <v>710</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8561,7 +8504,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
